--- a/Daily Backup hourlys/30 min csh/HCL.xlsx
+++ b/Daily Backup hourlys/30 min csh/HCL.xlsx
@@ -586,19 +586,19 @@
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="n"/>
       <c r="F7" s="2" t="n">
-        <v>1328.75</v>
+        <v>1432.15</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>1335.75</v>
+        <v>1447.05</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>1320.4</v>
+        <v>1420.1</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>1329.7</v>
+        <v>1422.05</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>1326.6</v>
+        <v>1439.95</v>
       </c>
       <c r="K7" s="1" t="n"/>
       <c r="L7" s="1" t="n"/>
@@ -649,13 +649,13 @@
         <v>0.3958333333333333</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>1330</v>
+        <v>1436</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>1325.2</v>
+        <v>1421.15</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>1328</v>
+        <v>1431.8</v>
       </c>
       <c r="J9" s="1" t="n"/>
       <c r="K9" s="1" t="n"/>
@@ -674,13 +674,13 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>1331.95</v>
+        <v>1446.85</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>1323.75</v>
+        <v>1428.6</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>1330.95</v>
+        <v>1439.8</v>
       </c>
       <c r="J10" s="1" t="n"/>
       <c r="K10" s="1" t="n"/>
@@ -699,13 +699,13 @@
         <v>0.4375</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>1335.75</v>
+        <v>1447.05</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>1330.65</v>
+        <v>1437.5</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>1335.3</v>
+        <v>1441.5</v>
       </c>
       <c r="J11" s="1" t="n"/>
       <c r="K11" s="1" t="n"/>
@@ -724,13 +724,13 @@
         <v>0.4583333333333333</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>1335.4</v>
+        <v>1445.9</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>1330.75</v>
+        <v>1436.4</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>1332</v>
+        <v>1442.05</v>
       </c>
       <c r="J12" s="1" t="n"/>
       <c r="K12" s="1" t="n"/>
@@ -749,13 +749,13 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1332.2</v>
+        <v>1442.95</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>1327.6</v>
+        <v>1437.05</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>1328.5</v>
+        <v>1439.5</v>
       </c>
       <c r="J13" s="1" t="n"/>
       <c r="K13" s="1" t="n"/>
@@ -774,13 +774,13 @@
         <v>0.5</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>1330</v>
+        <v>1441.85</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>1327.6</v>
+        <v>1432.95</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>1329.35</v>
+        <v>1435.4</v>
       </c>
       <c r="J14" s="1" t="n"/>
       <c r="K14" s="1" t="n"/>
@@ -799,13 +799,13 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>1329.5</v>
+        <v>1438</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>1321.55</v>
+        <v>1435.05</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>1323</v>
+        <v>1436.45</v>
       </c>
       <c r="J15" s="1" t="n"/>
       <c r="K15" s="1" t="n"/>
@@ -824,13 +824,13 @@
         <v>0.5416666666666666</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>1327.25</v>
+        <v>1440.05</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>1322.35</v>
+        <v>1433.6</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>1324.85</v>
+        <v>1434.95</v>
       </c>
       <c r="J16" s="1" t="n"/>
       <c r="K16" s="1" t="n"/>
@@ -849,13 +849,13 @@
         <v>0.5625</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>1324.9</v>
+        <v>1436.4</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>1321.5</v>
+        <v>1428.55</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>1321.95</v>
+        <v>1430.65</v>
       </c>
       <c r="J17" s="1" t="n"/>
       <c r="K17" s="1" t="n"/>
@@ -874,13 +874,13 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>1322</v>
+        <v>1434.1</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>1320.4</v>
+        <v>1425.25</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>1322</v>
+        <v>1427.3</v>
       </c>
       <c r="J18" s="1" t="n"/>
       <c r="K18" s="1" t="n"/>
@@ -899,13 +899,13 @@
         <v>0.6041666666666666</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>1327.75</v>
+        <v>1428.7</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>1320.45</v>
+        <v>1423.6</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>1326.55</v>
+        <v>1426</v>
       </c>
       <c r="J19" s="1" t="n"/>
       <c r="K19" s="1" t="n"/>
@@ -924,13 +924,13 @@
         <v>0.625</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>1332</v>
+        <v>1427.95</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>1324.8</v>
+        <v>1420.45</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>1329.4</v>
+        <v>1420.5</v>
       </c>
       <c r="J20" s="1" t="n"/>
       <c r="K20" s="1" t="n"/>
@@ -949,13 +949,13 @@
         <v>0.6458333333333334</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>1330.3</v>
+        <v>1424.5</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>1328.35</v>
+        <v>1420.1</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>1330</v>
+        <v>1424.25</v>
       </c>
       <c r="J21" s="1" t="n"/>
       <c r="K21" s="1" t="n"/>
